--- a/photoprotection_catalogue_template.xlsx
+++ b/photoprotection_catalogue_template.xlsx
@@ -1,27 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dmail-my.sharepoint.com/personal/dbajek001_dundee_ac_uk/Documents/Ninewells Docs/Projects/Online product catalogue/App/photoprotection-catalogue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_918051C587245DC4E8F59F9A4F1719645669E72E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32ADE608-79DB-4454-9051-7B520F402AB8}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="11_918051C587245DC4E8F59F9A4F1719645669E72E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65958C34-3636-48CA-9EA3-73E16AF159D7}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="19200" windowHeight="9970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3190" yWindow="2060" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sunscreens" sheetId="1" r:id="rId1"/>
     <sheet name="Clothing" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="98">
   <si>
     <t>Version</t>
   </si>
@@ -107,12 +120,6 @@
     <t>2025-10-26</t>
   </si>
   <si>
-    <t>Tesco Everyday</t>
-  </si>
-  <si>
-    <t>Everyday Sun Lotion SPF 30</t>
-  </si>
-  <si>
     <t>TSCB-0825-A</t>
   </si>
   <si>
@@ -137,24 +144,12 @@
     <t>LAB-A01</t>
   </si>
   <si>
-    <t>12%</t>
-  </si>
-  <si>
-    <t>6%</t>
-  </si>
-  <si>
     <t>img_tesco.png</t>
   </si>
   <si>
     <t>Dundee Photobiology Unit</t>
   </si>
   <si>
-    <t>La Roche-Posay</t>
-  </si>
-  <si>
-    <t>Anthelios UVMune 400 SPF 50+ Fluid</t>
-  </si>
-  <si>
     <t>LRP-2410-01</t>
   </si>
   <si>
@@ -185,24 +180,12 @@
     <t>LAB-B09</t>
   </si>
   <si>
-    <t>65%</t>
-  </si>
-  <si>
-    <t>22%</t>
-  </si>
-  <si>
     <t>img_anthelios.png</t>
   </si>
   <si>
     <t>Wellman Center / Dundee Collab</t>
   </si>
   <si>
-    <t>UV Medicare</t>
-  </si>
-  <si>
-    <t>Photoprotection Ultra SPF 100 Barrier Cream</t>
-  </si>
-  <si>
     <t>UVM-0925-X</t>
   </si>
   <si>
@@ -233,12 +216,6 @@
     <t>LAB-C22</t>
   </si>
   <si>
-    <t>96%</t>
-  </si>
-  <si>
-    <t>80%</t>
-  </si>
-  <si>
     <t>img_uvmedicare.png</t>
   </si>
   <si>
@@ -269,15 +246,6 @@
     <t>Label printed inside collar</t>
   </si>
   <si>
-    <t>UPF 120</t>
-  </si>
-  <si>
-    <t>&lt;5%</t>
-  </si>
-  <si>
-    <t>UVA PF 28</t>
-  </si>
-  <si>
     <t>Image_TescoTshirt.jpg</t>
   </si>
   <si>
@@ -314,12 +282,6 @@
     <t>Embroidered logo front left</t>
   </si>
   <si>
-    <t>UPF 52</t>
-  </si>
-  <si>
-    <t>UVA PF 40</t>
-  </si>
-  <si>
     <t>Image_CraghoppersShirt.jpg</t>
   </si>
   <si>
@@ -353,22 +315,29 @@
     <t>Tag stitched right hem</t>
   </si>
   <si>
-    <t>UPF 42</t>
-  </si>
-  <si>
-    <t>UVA PF 34</t>
-  </si>
-  <si>
     <t>Image_ColumbiaShirt.jpg</t>
   </si>
   <si>
     <t>Wellman Centre / MGH Collaboration</t>
+  </si>
+  <si>
+    <t>UVB UVA</t>
+  </si>
+  <si>
+    <t>UVB</t>
+  </si>
+  <si>
+    <t>UVB UVA HEV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
+    <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -421,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -435,6 +404,18 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -739,88 +720,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="16.6328125" customWidth="1"/>
+    <col min="4" max="4" width="28.7265625" customWidth="1"/>
+    <col min="21" max="21" width="11.90625" customWidth="1"/>
+    <col min="22" max="22" width="12.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -831,68 +818,69 @@
       <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
         <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
       </c>
       <c r="F2">
         <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K2">
         <v>200</v>
       </c>
       <c r="L2">
-        <v>2.5</v>
+        <v>8.5</v>
       </c>
       <c r="M2">
-        <v>1.2500000000000001E-2</v>
+        <f>L2/K2</f>
+        <v>4.2500000000000003E-2</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O2">
         <v>2.5</v>
       </c>
       <c r="P2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>35</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2">
+        <v>60</v>
+      </c>
+      <c r="U2" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="V2" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="W2">
+        <v>38</v>
+      </c>
+      <c r="X2" t="s">
         <v>36</v>
       </c>
-      <c r="S2" t="s">
+      <c r="Y2" t="s">
         <v>37</v>
-      </c>
-      <c r="T2">
-        <v>28</v>
-      </c>
-      <c r="U2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V2" t="s">
-        <v>39</v>
-      </c>
-      <c r="W2">
-        <v>6</v>
-      </c>
-      <c r="X2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.35">
@@ -902,71 +890,72 @@
       <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s">
         <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" t="s">
-        <v>48</v>
       </c>
       <c r="K3">
         <v>50</v>
       </c>
       <c r="L3">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="M3">
-        <v>0.44</v>
+        <f t="shared" ref="M3:M4" si="0">L3/K3</f>
+        <v>0.28000000000000003</v>
       </c>
       <c r="N3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="O3">
         <v>23</v>
       </c>
       <c r="P3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="Q3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="R3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="S3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="T3">
-        <v>63</v>
-      </c>
-      <c r="U3" t="s">
-        <v>54</v>
-      </c>
-      <c r="V3" t="s">
-        <v>55</v>
+        <v>120</v>
+      </c>
+      <c r="U3" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="V3" s="10">
+        <v>0.01</v>
       </c>
       <c r="W3">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="X3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.35">
@@ -976,78 +965,112 @@
       <c r="B4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
-        <v>58</v>
+      <c r="C4" s="7">
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F4">
         <v>100</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="K4">
         <v>100</v>
       </c>
       <c r="L4">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>0.48</v>
+        <f t="shared" si="0"/>
+        <v>0.18</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="O4">
         <v>50</v>
       </c>
       <c r="P4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="Q4" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="R4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="S4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="T4">
-        <v>112</v>
-      </c>
-      <c r="U4" t="s">
-        <v>70</v>
-      </c>
-      <c r="V4" t="s">
-        <v>71</v>
+        <v>55</v>
+      </c>
+      <c r="U4" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="V4" s="10">
+        <v>0.75</v>
       </c>
       <c r="W4">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="X4" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="Y4" t="s">
-        <v>73</v>
-      </c>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1055,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1067,6 +1090,8 @@
     <col min="10" max="10" width="25.1796875" customWidth="1"/>
     <col min="18" max="18" width="12.36328125" customWidth="1"/>
     <col min="19" max="19" width="17.81640625" customWidth="1"/>
+    <col min="21" max="21" width="12.08984375" customWidth="1"/>
+    <col min="22" max="22" width="14.453125" customWidth="1"/>
     <col min="25" max="25" width="12.7265625" customWidth="1"/>
     <col min="26" max="26" width="17.453125" customWidth="1"/>
   </cols>
@@ -1151,7 +1176,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1159,49 +1184,49 @@
         <v>45956</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="L2" s="2">
         <v>2.5</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="O2" s="2">
         <v>2.5</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="R2" s="3">
         <v>45920</v>
@@ -1210,28 +1235,28 @@
         <v>45921</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>84</v>
+        <v>69</v>
+      </c>
+      <c r="U2" s="2">
+        <v>120</v>
+      </c>
+      <c r="V2" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="W2" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="X2" s="2">
+        <v>28</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1239,49 +1264,49 @@
         <v>45956</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="I3" s="4">
         <v>0.95</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="L3" s="2">
         <v>65</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="O3" s="2">
         <v>65</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="R3" s="3">
         <v>45918</v>
@@ -1290,10 +1315,10 @@
         <v>45919</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
+      </c>
+      <c r="U3" s="2">
+        <v>52</v>
       </c>
       <c r="V3" s="4">
         <v>0.35</v>
@@ -1301,14 +1326,14 @@
       <c r="W3" s="4">
         <v>0.18</v>
       </c>
-      <c r="X3" s="2" t="s">
-        <v>98</v>
+      <c r="X3" s="2">
+        <v>40</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
@@ -1319,49 +1344,49 @@
         <v>45956</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="I4" s="4">
         <v>0.9</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="L4" s="2">
         <v>45</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="O4" s="2">
         <v>50</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="R4" s="3">
         <v>45922</v>
@@ -1370,10 +1395,10 @@
         <v>45922</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>110</v>
+        <v>92</v>
+      </c>
+      <c r="U4" s="2">
+        <v>42</v>
       </c>
       <c r="V4" s="4">
         <v>0.42</v>
@@ -1381,14 +1406,14 @@
       <c r="W4" s="4">
         <v>0.25</v>
       </c>
-      <c r="X4" s="2" t="s">
-        <v>111</v>
+      <c r="X4" s="2">
+        <v>34</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/photoprotection_catalogue_template.xlsx
+++ b/photoprotection_catalogue_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dmail-my.sharepoint.com/personal/dbajek001_dundee_ac_uk/Documents/Ninewells Docs/Projects/Online product catalogue/App/photoprotection-catalogue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="11_918051C587245DC4E8F59F9A4F1719645669E72E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65958C34-3636-48CA-9EA3-73E16AF159D7}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="11_918051C587245DC4E8F59F9A4F1719645669E72E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57C49676-D9D5-4B24-AB6A-D9095DA5ED3F}"/>
   <bookViews>
-    <workbookView xWindow="3190" yWindow="2060" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sunscreens" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="104">
   <si>
     <t>Version</t>
   </si>
@@ -328,6 +328,24 @@
   </si>
   <si>
     <t>UVB UVA HEV</t>
+  </si>
+  <si>
+    <t>£8.50 sunscreen</t>
+  </si>
+  <si>
+    <t>£14 sunscreen</t>
+  </si>
+  <si>
+    <t>£22 sunscreen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mystery </t>
+  </si>
+  <si>
+    <t>Sunscreen A</t>
+  </si>
+  <si>
+    <t>Sunscreen B</t>
   </si>
 </sst>
 </file>
@@ -431,6 +449,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -722,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -818,11 +840,11 @@
       <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="6">
-        <v>8.5</v>
+      <c r="C2" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
         <v>28</v>
@@ -865,16 +887,16 @@
         <v>35</v>
       </c>
       <c r="T2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="U2" s="10">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="V2" s="10">
-        <v>0.05</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="W2">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="X2" t="s">
         <v>36</v>
@@ -890,11 +912,11 @@
       <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="7">
-        <v>14</v>
+      <c r="C3" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E3" t="s">
         <v>38</v>
@@ -912,14 +934,14 @@
         <v>42</v>
       </c>
       <c r="K3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L3">
         <v>14</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M4" si="0">L3/K3</f>
-        <v>0.28000000000000003</v>
+        <f t="shared" ref="M3:M6" si="0">L3/K3</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="N3" t="s">
         <v>43</v>
@@ -940,16 +962,16 @@
         <v>47</v>
       </c>
       <c r="T3">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="U3" s="10">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="V3" s="10">
         <v>0.01</v>
       </c>
       <c r="W3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="X3" t="s">
         <v>48</v>
@@ -965,8 +987,8 @@
       <c r="B4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="7">
-        <v>18</v>
+      <c r="C4" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="D4" t="s">
         <v>97</v>
@@ -990,14 +1012,14 @@
         <v>54</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L4">
         <v>18</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
-        <v>0.18</v>
+        <v>0.36</v>
       </c>
       <c r="N4" t="s">
         <v>55</v>
@@ -1021,13 +1043,13 @@
         <v>55</v>
       </c>
       <c r="U4" s="10">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="V4" s="10">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="W4">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="X4" t="s">
         <v>60</v>
@@ -1037,12 +1059,64 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
+      <c r="C5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K5">
+        <v>200</v>
+      </c>
+      <c r="L5">
+        <v>8.5</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="T5">
+        <v>90</v>
+      </c>
+      <c r="U5" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="V5" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="W5">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" t="s">
+        <v>103</v>
+      </c>
+      <c r="K6">
+        <v>50</v>
+      </c>
+      <c r="L6">
+        <v>25</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="T6">
+        <v>40</v>
+      </c>
+      <c r="U6" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="V6" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="U7" s="10"/>

--- a/photoprotection_catalogue_template.xlsx
+++ b/photoprotection_catalogue_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dmail-my.sharepoint.com/personal/dbajek001_dundee_ac_uk/Documents/Ninewells Docs/Projects/Online product catalogue/App/photoprotection-catalogue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="11_918051C587245DC4E8F59F9A4F1719645669E72E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57C49676-D9D5-4B24-AB6A-D9095DA5ED3F}"/>
+  <xr:revisionPtr revIDLastSave="148" documentId="11_918051C587245DC4E8F59F9A4F1719645669E72E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DCEEAD5-8A9B-42CE-90F9-D37218AD331A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="107">
   <si>
     <t>Version</t>
   </si>
@@ -144,9 +144,6 @@
     <t>LAB-A01</t>
   </si>
   <si>
-    <t>img_tesco.png</t>
-  </si>
-  <si>
     <t>Dundee Photobiology Unit</t>
   </si>
   <si>
@@ -180,9 +177,6 @@
     <t>LAB-B09</t>
   </si>
   <si>
-    <t>img_anthelios.png</t>
-  </si>
-  <si>
     <t>Wellman Center / Dundee Collab</t>
   </si>
   <si>
@@ -216,9 +210,6 @@
     <t>LAB-C22</t>
   </si>
   <si>
-    <t>img_uvmedicare.png</t>
-  </si>
-  <si>
     <t>Dundee Photobiology Unit / Ewan Eadie</t>
   </si>
   <si>
@@ -346,6 +337,24 @@
   </si>
   <si>
     <t>Sunscreen B</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Images/0001.png</t>
+  </si>
+  <si>
+    <t>Images/0002.png</t>
+  </si>
+  <si>
+    <t>Images/0003.png</t>
+  </si>
+  <si>
+    <t>Images/0004.png</t>
+  </si>
+  <si>
+    <t>Images/0005.png</t>
   </si>
 </sst>
 </file>
@@ -449,10 +458,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -745,7 +750,7 @@
   <dimension ref="A1:Y12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -758,7 +763,7 @@
   <sheetData>
     <row r="1" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -841,10 +846,10 @@
         <v>27</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
         <v>28</v>
@@ -899,39 +904,39 @@
         <v>5</v>
       </c>
       <c r="X2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y2" t="s">
         <v>36</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
         <v>38</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>39</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>40</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>41</v>
-      </c>
-      <c r="J3" t="s">
-        <v>42</v>
       </c>
       <c r="K3">
         <v>100</v>
@@ -944,22 +949,22 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="N3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O3">
         <v>23</v>
       </c>
       <c r="P3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" t="s">
         <v>44</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>45</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>46</v>
-      </c>
-      <c r="S3" t="s">
-        <v>47</v>
       </c>
       <c r="T3">
         <v>100</v>
@@ -974,42 +979,42 @@
         <v>40</v>
       </c>
       <c r="X3" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="Y3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F4">
         <v>100</v>
       </c>
       <c r="G4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" t="s">
         <v>51</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>52</v>
-      </c>
-      <c r="I4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J4" t="s">
-        <v>54</v>
       </c>
       <c r="K4">
         <v>50</v>
@@ -1022,22 +1027,22 @@
         <v>0.36</v>
       </c>
       <c r="N4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O4">
         <v>50</v>
       </c>
       <c r="P4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R4" t="s">
         <v>56</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>57</v>
-      </c>
-      <c r="R4" t="s">
-        <v>58</v>
-      </c>
-      <c r="S4" t="s">
-        <v>59</v>
       </c>
       <c r="T4">
         <v>55</v>
@@ -1052,18 +1057,21 @@
         <v>25</v>
       </c>
       <c r="X4" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="Y4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K5">
         <v>200</v>
@@ -1087,13 +1095,19 @@
       <c r="W5">
         <v>40</v>
       </c>
+      <c r="X5" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K6">
         <v>50</v>
@@ -1116,6 +1130,9 @@
       </c>
       <c r="W6">
         <v>1</v>
+      </c>
+      <c r="X6" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.35">
@@ -1261,46 +1278,46 @@
         <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L2" s="2">
         <v>2.5</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="O2" s="2">
         <v>2.5</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R2" s="3">
         <v>45920</v>
@@ -1309,7 +1326,7 @@
         <v>45921</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="U2" s="2">
         <v>120</v>
@@ -1324,10 +1341,10 @@
         <v>28</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="58" x14ac:dyDescent="0.35">
@@ -1338,49 +1355,49 @@
         <v>45956</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I3" s="4">
         <v>0.95</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L3" s="2">
         <v>65</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O3" s="2">
         <v>65</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R3" s="3">
         <v>45918</v>
@@ -1389,7 +1406,7 @@
         <v>45919</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="U3" s="2">
         <v>52</v>
@@ -1404,10 +1421,10 @@
         <v>40</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
@@ -1418,49 +1435,49 @@
         <v>45956</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I4" s="4">
         <v>0.9</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L4" s="2">
         <v>45</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O4" s="2">
         <v>50</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="R4" s="3">
         <v>45922</v>
@@ -1469,7 +1486,7 @@
         <v>45922</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="U4" s="2">
         <v>42</v>
@@ -1484,10 +1501,10 @@
         <v>34</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
